--- a/WebService/Daily_Scrum.xlsx
+++ b/WebService/Daily_Scrum.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E748FD-1178-4EFE-BAE0-50125FD4C65F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F75248C-FC8F-4957-BA1F-C3E7813F7EF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -52,9 +52,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>GUI &amp; Allgemeine Beschreibung</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Funktionalitätsbeschreibung</t>
   </si>
   <si>
-    <t>˗</t>
-  </si>
-  <si>
     <t>User Storys</t>
   </si>
   <si>
@@ -104,6 +98,51 @@
   </si>
   <si>
     <t>GitHub</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>Webservice Recherche</t>
+  </si>
+  <si>
+    <t>Test Webservice</t>
+  </si>
+  <si>
+    <t>Webservice</t>
+  </si>
+  <si>
+    <t>Slidermenü</t>
+  </si>
+  <si>
+    <t>Visio Map überarbeiten</t>
+  </si>
+  <si>
+    <t>Visio Map ausdrucken &amp; Post ist anpassen</t>
+  </si>
+  <si>
+    <t>Webservice beschreiben</t>
+  </si>
+  <si>
+    <t>Visio Story Map und User Stories anpassen</t>
+  </si>
+  <si>
+    <t>Datenmodel anpassen</t>
+  </si>
+  <si>
+    <t>Datenbank anpassen</t>
+  </si>
+  <si>
+    <t>Automatische Id vergabe</t>
+  </si>
+  <si>
+    <t>Datenbank testen</t>
+  </si>
+  <si>
+    <t>Datenbank und Webservice verbinden</t>
   </si>
 </sst>
 </file>
@@ -519,11 +558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H28" sqref="H28"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -541,11 +580,11 @@
     <col min="11" max="11" width="23.1015625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.3125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34.7890625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83984375" customWidth="1"/>
+    <col min="14" max="14" width="4.15625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.47265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.3125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.7890625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.83984375" customWidth="1"/>
+    <col min="18" max="18" width="2.15625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.3125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25.26171875" bestFit="1" customWidth="1"/>
@@ -654,39 +693,39 @@
         <v>43164</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" t="s">
         <v>11</v>
-      </c>
-      <c r="R3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -694,40 +733,40 @@
         <v>43165</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" t="s">
         <v>11</v>
-      </c>
-      <c r="R4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -735,35 +774,35 @@
         <v>43166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="O5" s="7"/>
       <c r="Q5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" t="s">
         <v>11</v>
-      </c>
-      <c r="R5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -771,34 +810,34 @@
         <v>43167</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="7" t="s">
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" t="s">
         <v>11</v>
-      </c>
-      <c r="R6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -806,40 +845,40 @@
         <v>43168</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -850,34 +889,34 @@
         <v>43171</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
         <v>22</v>
       </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
       <c r="N9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="U9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -885,31 +924,31 @@
         <v>43172</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
       <c r="N10" s="11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="R10" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="U10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -917,34 +956,37 @@
         <v>43173</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
       <c r="N11" s="11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="U11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -952,31 +994,37 @@
         <v>43174</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="U12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -984,31 +1032,34 @@
         <v>43175</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="Q13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R13" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="U13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -1019,28 +1070,40 @@
         <v>43179</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N15" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>31</v>
       </c>
       <c r="Q15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="T15" t="s">
+        <v>31</v>
       </c>
       <c r="U15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -1048,28 +1111,40 @@
         <v>43180</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N16" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>31</v>
       </c>
       <c r="Q16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R16" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="T16" t="s">
+        <v>31</v>
       </c>
       <c r="U16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -1077,25 +1152,37 @@
         <v>43181</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
       </c>
       <c r="J17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>31</v>
       </c>
       <c r="Q17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R17" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="T17" t="s">
+        <v>31</v>
       </c>
       <c r="U17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -1103,28 +1190,338 @@
         <v>43182</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N18" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="P18" t="s">
+        <v>31</v>
       </c>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R18" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="T18" t="s">
+        <v>31</v>
       </c>
       <c r="U18" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
+        <v>43194</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3">
+        <v>43195</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
+      <c r="U21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3">
+        <v>43196</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3">
+        <v>43199</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
+        <v>43200</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+      <c r="U25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3">
+        <v>43201</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3">
+        <v>43202</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+      <c r="U27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3">
+        <v>43203</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
